--- a/medicine/Enfance/Clifford_Witting/Clifford_Witting.xlsx
+++ b/medicine/Enfance/Clifford_Witting/Clifford_Witting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clifford Witting, né en septembre 1907, à Lewisham, un borough du Grand Londres, et mort en 1968, est un romancier et scénariste britannique, auteur de romans policiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Eltham College qu'il termine en 1924. Il occupe ensuite un poste de commis à la Lloyds Bank jusqu'en 1942.
 Pendant la Seconde Guerre mondiale, il sert comme bombardier dans le régiment de la Royal Artillery de 1942 à 1944, puis comme Warrant Officer (en) dans le Royal Army Ordnance Corps (en) de 1944 à 1946.
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Inspecteur Charlton et sergent Bradford
-Murder in Blue (1937)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Inspecteur Charlton et sergent Bradford</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Murder in Blue (1937)
 Midsummer Murder (1937) Publié en français sous le titre Cibles vivantes, traduit par Perrine Vernay, Paris, Nouvelle Revue Critique, coll. L'Empreinte no 150, 1938
 The Case of the Michaelmas Goose (1938)
 Catt Out of the Bag (1939)
@@ -563,16 +585,7 @@
 Silence After Dinner (1953)
 There Was a Crooked Man (1960)
 Driven to Kill (1961)
-Crime in Whispers (1964)
-Autres romans policiers
-Mischief in the Offing (1958)
-Villainous Saltpetre (1962)
-Ouvrage de littérature d'enfance et de jeunesse
-The Knights of St. Perran (1940)
-English Proverbs Explained (1967), en collaboration avec Ronald Ridout
-Autres publications
-A Rotarian's Journal (1950)
-The Facts of English (1964)</t>
+Crime in Whispers (1964)</t>
         </is>
       </c>
     </row>
@@ -597,16 +610,177 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mischief in the Offing (1958)
+Villainous Saltpetre (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Knights of St. Perran (1940)
+English Proverbs Explained (1967), en collaboration avec Ronald Ridout</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A Rotarian's Journal (1950)
+The Facts of English (1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme scénariste
-Au cinéma
-1953 : Park Plaza 605 (en), film britannique réalisé par Bernard Knowles, avec Tom Conway et Eva Bartok
-À la télévision
-1964 : Subject: Murder, épisode 10, saison 1 de la série télévisée britannique Detective, réalisé par Max Varnel, sur un scénario original de Clifford Witting
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1953 : Park Plaza 605 (en), film britannique réalisé par Bernard Knowles, avec Tom Conway et Eva Bartok</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clifford_Witting</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1964 : Subject: Murder, épisode 10, saison 1 de la série télévisée britannique Detective, réalisé par Max Varnel, sur un scénario original de Clifford Witting
 1964 : Quick One, épisode 18, saison 1 de la série télévisée britannique Detective, réalisé par Gildchrist Calder, sur un scénario de Witting d'après un récit de G. K. Chesterton
 1965 : La Grange de l'abbaye (The Abbey Grange), épisode 6, saison 1 de la série télévisée britannique Sherlock Holmes, réalisé par Peter Cregeen, d'après la nouvelle Le Manoir de l'Abbaye d'Arthur Conan Doyle
 1965 : Charles Auguste Milverton, épisode 11, saison 1 de la série télévisée britannique Sherlock Holmes, réalisé par Philip Dudley, d'après la nouvelle Charles Auguste Milverton d'Arthur Conan Doyle</t>
